--- a/doc/ue_pool.xlsx
+++ b/doc/ue_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5474AB9-3491-4379-9FF9-24A6A728ABA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41701C0F-1AA4-4A23-8AA6-620C2636AA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TextureStreaming" sheetId="6" r:id="rId6"/>
     <sheet name="GRenderTargetPool" sheetId="7" r:id="rId7"/>
     <sheet name="FUserWidgetPool" sheetId="8" r:id="rId8"/>
+    <sheet name="UGameplayCueManager" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>UE内部各种的缓存池</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +211,22 @@
   </si>
   <si>
     <t>It-&gt;LinkStreaming();</t>
+  </si>
+  <si>
+    <t>int32 GameplayCueActorRecycle = 1;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef CVarGameplayCueActorRecycle(TEXT("AbilitySystem.GameplayCueActorRecycle"), GameplayCueActorRecycle, TEXT("Allow recycling of GameplayCue Actors"), ECVF_Default );</t>
+  </si>
+  <si>
+    <t>int32 GameplayCueActorRecycleDebug = 0;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef CVarGameplayCueActorRecycleDebug(TEXT("AbilitySystem.GameplayCueActorRecycleDebug"), GameplayCueActorRecycleDebug, TEXT("Prints logs for GC actor recycling debugging"), ECVF_Default );</t>
+  </si>
+  <si>
+    <t>按照设备内存大小的动态处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,65 +582,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EB8657-4CF8-46EC-88E3-BA2299AB5FA0}">
-  <dimension ref="B3:C25"/>
+  <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -765,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AB812-C4D0-436B-BE12-D23D93D409C7}">
   <dimension ref="B4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -1064,4 +1084,41 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603A36C6-3609-4140-A145-D74A4E7DEB36}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_pool.xlsx
+++ b/doc/ue_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41701C0F-1AA4-4A23-8AA6-620C2636AA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB84786-8300-4FAB-8C6B-3DF16E9CFD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="GRenderTargetPool" sheetId="7" r:id="rId7"/>
     <sheet name="FUserWidgetPool" sheetId="8" r:id="rId8"/>
     <sheet name="UGameplayCueManager" sheetId="9" r:id="rId9"/>
+    <sheet name="字体文字池" sheetId="10" r:id="rId10"/>
+    <sheet name="UCameraModifier_CameraShake" sheetId="11" r:id="rId11"/>
+    <sheet name="ios-metal" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>UE内部各种的缓存池</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +229,49 @@
   </si>
   <si>
     <t>按照设备内存大小的动态处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的字体都绘制到一张RT上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCameraModifier_CameraShake::SaveShakeInExpiredPool(UCameraShakeBase* ShakeInst)</t>
+  </si>
+  <si>
+    <t>FPooledCameraShakes&amp; PooledCameraShakes = ExpiredPooledShakesMap.FindOrAdd(ShakeInst-&gt;GetClass());</t>
+  </si>
+  <si>
+    <t>if (PooledCameraShakes.PooledShakes.Num() &lt; 5)</t>
+  </si>
+  <si>
+    <t>PooledCameraShakes.PooledShakes.Emplace(ShakeInst);</t>
+  </si>
+  <si>
+    <t>UCameraModifier_CameraShake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 GMetalHeapBufferBytesToCompact = 0;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef CVarMetalHeapBufferBytesToCompact(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEXT("rhi.Metal.HeapBufferBytesToCompact"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GMetalHeapBufferBytesToCompact,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEXT("(Off by default (0))"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEXT("When enabled (&gt; 0) this will force MetalRHI to compact the given number of bytes each frame into older buffer heaps from newer ones in order to defragment memory and reduce wastage.\n")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 GMetalResourcePurgeInPool = 0;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,11 +626,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC6551-2FF6-44DA-B15D-0F71D39CC27B}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC314EE-D208-4777-A169-3A0B4E719944}">
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4CE3B-A3F6-4BBE-89BA-ED6FB1D88F2A}">
+  <dimension ref="B3:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EB8657-4CF8-46EC-88E3-BA2299AB5FA0}">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_pool.xlsx
+++ b/doc/ue_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB84786-8300-4FAB-8C6B-3DF16E9CFD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6459C-1996-4670-A3E4-E2814A1F543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="字体文字池" sheetId="10" r:id="rId10"/>
     <sheet name="UCameraModifier_CameraShake" sheetId="11" r:id="rId11"/>
     <sheet name="ios-metal" sheetId="12" r:id="rId12"/>
+    <sheet name="TResourcePool" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>UE内部各种的缓存池</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,13 @@
   </si>
   <si>
     <t>static int32 GMetalResourcePurgeInPool = 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TResourcePool</t>
+  </si>
+  <si>
+    <t>在TICK里面会缓慢的回收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4CE3B-A3F6-4BBE-89BA-ED6FB1D88F2A}">
   <dimension ref="B3:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -773,6 +781,33 @@
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7023DFF-48BD-4B0E-A9B0-DB4CDC718C2D}">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_pool.xlsx
+++ b/doc/ue_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6459C-1996-4670-A3E4-E2814A1F543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD6CD7-1425-46BF-BBE6-C916E6E83796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="UCameraModifier_CameraShake" sheetId="11" r:id="rId11"/>
     <sheet name="ios-metal" sheetId="12" r:id="rId12"/>
     <sheet name="TResourcePool" sheetId="13" r:id="rId13"/>
+    <sheet name="FMetalTexturePool" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
   <si>
     <t>UE内部各种的缓存池</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,7 +280,169 @@
     <t>TResourcePool</t>
   </si>
   <si>
-    <t>在TICK里面会缓慢的回收</t>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** A pool for metal buffers with consistent usage, bucketed for efficiency. */</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>/** Destructor */</t>
+  </si>
+  <si>
+    <t>virtual ~FMetalBufferPool();</t>
+  </si>
+  <si>
+    <t>/** A resource pool that automatically handles render-thread resources */</t>
+  </si>
+  <si>
+    <t>template&lt;typename ResourceType, class ResourcePoolPolicy, class ResourceCreationArguments&gt;</t>
+  </si>
+  <si>
+    <t>class TRenderResourcePool : public TResourcePool&lt;ResourceType, ResourcePoolPolicy, ResourceCreationArguments&gt;, public FTickableObjectRenderThread, public FRenderResource</t>
+  </si>
+  <si>
+    <t>Render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FGlobalDynamicMeshIndexPool : public TRenderResourcePool&lt;FBufferRHIRef, FGlobalDynamicMeshIndexPolicy, FGlobalDynamicMeshPoolPolicy::CreationArguments&gt;</t>
+  </si>
+  <si>
+    <t>/** A pool for vertex buffers with consistent usage, bucketed for efficiency. */</t>
+  </si>
+  <si>
+    <t>Tick里面默认会进行回收处理（但不是强制的，根据间隔和每次回收最大个数缓慢回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGlobalResource&lt;FGlobalDynamicMeshIndexPool&gt; GDynamicMeshIndexPool;</t>
+  </si>
+  <si>
+    <t>class FGlobalDynamicMeshVertexPool : public TRenderResourcePool&lt;FBufferRHIRef, FGlobalDynamicMeshVertexPolicy, FGlobalDynamicMeshPoolPolicy::CreationArguments&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGlobalResource&lt;FGlobalDynamicMeshVertexPool&gt; GDynamicMeshVertexPool;</t>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FBoneBufferPool : public TRenderResourcePool&lt;FVertexBufferAndSRV, FBoneBufferPoolPolicy, FSharedPoolPolicyData::CreationArguments&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGlobalResource&lt;FBoneBufferPool&gt; FGPUBaseSkinVertexFactory::BoneBufferPool;</t>
+  </si>
+  <si>
+    <t>FGPUBaseSkinVertexFactory</t>
+  </si>
+  <si>
+    <t>/** Vertex factory with vertex stream components for GPU skinned vertices */</t>
+  </si>
+  <si>
+    <t>class FGPUBaseSkinVertexFactory : public FVertexFactory</t>
+  </si>
+  <si>
+    <t>/** Pool of buffers for bone matrices. */</t>
+  </si>
+  <si>
+    <t>static TGlobalResource&lt;FBoneBufferPool&gt; BoneBufferPool;</t>
+  </si>
+  <si>
+    <t>全局的静态池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FClothBufferPool : public TRenderResourcePool&lt;FVertexBufferAndSRV, FClothBufferPoolPolicy, FSharedPoolPolicyData::CreationArguments&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGlobalResource&lt;FClothBufferPool&gt; FGPUBaseSkinAPEXClothVertexFactory::ClothSimulDataBufferPool;</t>
+  </si>
+  <si>
+    <t>FGPUBaseSkinAPEXClothVertexFactory</t>
+  </si>
+  <si>
+    <t>/** Vertex factory with vertex stream components for GPU-skinned and morph target streams */</t>
+  </si>
+  <si>
+    <t>class FGPUBaseSkinAPEXClothVertexFactory</t>
+  </si>
+  <si>
+    <t>/** Pool of buffers for clothing simulation data */</t>
+  </si>
+  <si>
+    <t>static TGlobalResource&lt;FClothBufferPool&gt; ClothSimulDataBufferPool;</t>
+  </si>
+  <si>
+    <t>class FMetalBufferPool : public TResourcePool&lt;FMetalBuffer, FMetalBufferPoolPolicyData, FMetalBufferPoolPolicyData::CreationArguments&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有TICK机制，所以没有缓慢回收的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在TICK里面会缓慢的回收；需要调用才行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FMetalResourceHeap</t>
+  </si>
+  <si>
+    <t>全局的Metal资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Larger buffers (up-to 32MB) that are subject to bucketing &amp; pooling rather than sub-allocation */</t>
+  </si>
+  <si>
+    <t>FMetalBufferPool Buffers[NumAllocTypes];</t>
+  </si>
+  <si>
+    <t>/** We can reuse texture allocations as well, to minimize their performance impact */</t>
+  </si>
+  <si>
+    <t>FMetalTexturePool TexturePool;</t>
+  </si>
+  <si>
+    <t>FMetalTexturePool TargetPool;</t>
+  </si>
+  <si>
+    <t>FMetalResourceHeap</t>
+  </si>
+  <si>
+    <t>void FMetalDeviceContext::EndFrame()</t>
+  </si>
+  <si>
+    <t>清空数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushFreeList();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>DrainHeap();</t>
+  </si>
+  <si>
+    <t>ClearFreeList();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +474,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,9 +502,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -792,22 +963,321 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7023DFF-48BD-4B0E-A9B0-DB4CDC718C2D}">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1819888D-33E9-4442-BCFD-97456791EFEC}">
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>76</v>
+      <c r="C3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_pool.xlsx
+++ b/doc/ue_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD6CD7-1425-46BF-BBE6-C916E6E83796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B2C4C-A599-419D-B893-E1288114544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="ios-metal" sheetId="12" r:id="rId12"/>
     <sheet name="TResourcePool" sheetId="13" r:id="rId13"/>
     <sheet name="FMetalTexturePool" sheetId="14" r:id="rId14"/>
+    <sheet name="SKELETON_POOL_GPUSKINS" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>UE内部各种的缓存池</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +444,55 @@
   </si>
   <si>
     <t>ClearFreeList();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define SKELETON_POOL_GPUSKINS 1</t>
+  </si>
+  <si>
+    <t>#if SKELETON_POOL_GPUSKINS</t>
+  </si>
+  <si>
+    <t>TArray&lt;FDynamicSkelMeshObjectDataGPUSkin*&gt; FreeGpuSkins;</t>
+  </si>
+  <si>
+    <t>FCriticalSection FreeGpuSkinsCriticalSection;</t>
+  </si>
+  <si>
+    <t>static int32 GPoolGpuSkins = 1;</t>
+  </si>
+  <si>
+    <t>static int32 GMinPoolCount = 0;</t>
+  </si>
+  <si>
+    <t>static int32 GAllocationCounter = 0;</t>
+  </si>
+  <si>
+    <t>static const int32 GAllocationsBeforeCleanup = 1000; // number of allocations we make before we clean up the pool, this number is increased when we have to allocate not from the pool</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef CVarPoolGpuSkins(</t>
+  </si>
+  <si>
+    <t>TEXT("r.GpuSkin.Pool"),</t>
+  </si>
+  <si>
+    <t>GPoolGpuSkins,</t>
+  </si>
+  <si>
+    <t>TEXT("Should we pool gpu skins.\n")</t>
+  </si>
+  <si>
+    <t>TEXT(" 0: Don't pool anything\n")</t>
+  </si>
+  <si>
+    <t>TEXT(" 1: Pool gpu skins bro (default)\n"),</t>
+  </si>
+  <si>
+    <t>ECVF_Default</t>
+  </si>
+  <si>
+    <t>这部分会缓存导致资源无法释放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1819888D-33E9-4442-BCFD-97456791EFEC}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1278,6 +1328,113 @@
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E49FDA9-F89E-423C-A894-6C86E66C86BE}">
+  <dimension ref="B4:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
